--- a/src/test/java/testdatas/TestDataSignIn.xlsx
+++ b/src/test/java/testdatas/TestDataSignIn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAWTHAM HANISH\Downloads\eclipse-committers-oxygen-3a-win32-x86_64\eclipse\bhuvanaselenium\MyMaven\src\test\java\testdatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97009EA-1EDD-448A-82BA-E0FDB90354C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A546179-F62A-48FF-B26B-231D6C54A3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{F1A1887A-5378-4B7B-A751-CBF6172A9FA9}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{F1A1887A-5378-4B7B-A751-CBF6172A9FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>firstname</t>
   </si>
@@ -51,34 +51,28 @@
     <t>v</t>
   </si>
   <si>
-    <t>vin</t>
-  </si>
-  <si>
-    <t>dhfrjfj@gmail.com</t>
-  </si>
-  <si>
-    <t>dwr@5667D</t>
-  </si>
-  <si>
-    <t>FTGTG</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>sfdhdfjn@gmail.com</t>
-  </si>
-  <si>
-    <t>3445fgWEF</t>
-  </si>
-  <si>
-    <t>bhuvi2356@gmail.com</t>
-  </si>
-  <si>
-    <t>Ysyuuva@69er</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>avadi</t>
+  </si>
+  <si>
+    <t>postalcodecity</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>ambattur</t>
+  </si>
+  <si>
+    <t>asr2fg34@werrtA</t>
+  </si>
+  <si>
+    <t>bhuv45ie90@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,19 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC14F15-F2A5-4FC4-B9CB-555E51801AE9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +461,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -475,47 +482,35 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>600054</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>4426864385</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CF4642C5-83BB-4A4C-876E-2F7C7DCDD1CA}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{821492E5-6DDF-4466-BAD7-B04ABBA8CE37}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F3CBC631-8AB1-4AEE-9214-53F808A9F307}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{18035EBF-D247-4152-ADA8-3666957AA3D7}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{CB1F60AC-B546-4EED-84C1-4C76DC311EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
